--- a/Tp2/Tableau_Des_Taches.xlsx
+++ b/Tp2/Tableau_Des_Taches.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DeGuiWii\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeGuiWii\Tp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25004DAD-B35F-4A7A-9B40-F6C02C0DEFEB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B2789-DB1C-4419-BB2A-1D250E409924}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EE72E57F-06F0-4D34-A1EE-153CBC309DE4}"/>
   </bookViews>

--- a/Tp2/Tableau_Des_Taches.xlsx
+++ b/Tp2/Tableau_Des_Taches.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DeGuiWii\Tp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Cegep\Session 5 Informatique\DeGuiWii\Tp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B2789-DB1C-4419-BB2A-1D250E409924}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D42A7-010B-4E85-B2BC-47675A946278}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EE72E57F-06F0-4D34-A1EE-153CBC309DE4}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>No. Tâche</t>
   </si>
@@ -80,15 +80,6 @@
     <t>Interfaces</t>
   </si>
   <si>
-    <t>Vues</t>
-  </si>
-  <si>
-    <t>Gestion des PDF</t>
-  </si>
-  <si>
-    <t>Gestion des exportations Excel</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>7.2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -155,43 +143,46 @@
     <t>TABLEAU DES TÂCHES POUR CO-ECO</t>
   </si>
   <si>
-    <t>Calculs</t>
-  </si>
-  <si>
     <t>8.0</t>
   </si>
   <si>
     <t>8.1</t>
   </si>
   <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>Banque d'heure des employés</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
-    <t>Heure travailler sur un projet</t>
-  </si>
-  <si>
-    <t>Dépense d'un employé</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
     <t>6.3</t>
   </si>
   <si>
     <t>Recherche Filtrée</t>
   </si>
   <si>
-    <t>Résumé des heures travaillées sur un projet</t>
-  </si>
-  <si>
     <t>Analyse et croquis</t>
+  </si>
+  <si>
+    <t>Lié un employés à un projet</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Lié une catégorie à un projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banque d'heure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dépense </t>
+  </si>
+  <si>
+    <t>Gestion des banques d'heures des employés</t>
+  </si>
+  <si>
+    <t>Gestion des dépenses employés</t>
+  </si>
+  <si>
+    <t>1.0 - 2.0 - 3.0 - 6.0</t>
   </si>
 </sst>
 </file>
@@ -242,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +264,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -376,51 +373,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -538,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -561,13 +513,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,15 +522,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -596,18 +541,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -934,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5625688F-58E9-45F0-9A36-7F0BAA0E0980}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,479 +892,457 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19"/>
-      <c r="B2" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>35</v>
+      <c r="E6" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="20"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>35</v>
+      <c r="E7" s="25" t="s">
+        <v>31</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5">
         <v>10</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="25" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2">
         <v>10</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>36</v>
+      <c r="E12" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="5">
         <v>6</v>
       </c>
-      <c r="E13" s="28" t="s">
-        <v>36</v>
+      <c r="E13" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C18" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="17"/>
+      <c r="I21" s="22"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="4" t="s">
+      <c r="E23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C24" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="2">
+        <v>6</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2">
-        <v>8</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="5">
-        <v>5</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="20"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="11">
-        <v>3</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="E27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="G31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
